--- a/Bank aktiekurser.xlsx
+++ b/Bank aktiekurser.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Danske Bank</t>
+    <t xml:space="preserve">Danske.Bank</t>
   </si>
   <si>
     <t xml:space="preserve">Sydbank</t>
@@ -346,8 +346,8 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
-      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -1657,8 +1657,12 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164"/>
-      <c r="B164"/>
+      <c r="A164" t="n">
+        <v>222.6</v>
+      </c>
+      <c r="B164" t="n">
+        <v>237.6</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -1805,8 +1809,12 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183"/>
-      <c r="B183"/>
+      <c r="A183" t="n">
+        <v>208.425</v>
+      </c>
+      <c r="B183" t="n">
+        <v>220.3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -1825,8 +1833,12 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186"/>
-      <c r="B186"/>
+      <c r="A186" t="n">
+        <v>211.55</v>
+      </c>
+      <c r="B186" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
